--- a/data/public/cdfw_keys/raw/species_codes_that_i_know_but_cdfw_doesnt.xlsx
+++ b/data/public/cdfw_keys/raw/species_codes_that_i_know_but_cdfw_doesnt.xlsx
@@ -1,59 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/california/cdfw_data/data/public/cdfw_keys/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76222D51-4EEF-834E-89C9-BAEC6391508A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53352042-6A9D-9D4F-BDCC-AA14C70026CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19100" yWindow="4580" windowWidth="23900" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11940" yWindow="4580" windowWidth="23900" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="species codes 2009" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'species codes 2009'!$A$1:$F$392</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'species codes 2009'!$A$1:$E$392</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
-  <si>
-    <t>EXSP</t>
-  </si>
-  <si>
-    <t>Common Name</t>
-  </si>
-  <si>
-    <t>Scientific Name</t>
-  </si>
-  <si>
-    <t>EXSP text</t>
-  </si>
-  <si>
-    <t>PACFIN code</t>
-  </si>
-  <si>
-    <t>Sturgeon, green</t>
-  </si>
-  <si>
-    <t>Sturgeon, white</t>
-  </si>
-  <si>
-    <t>Rockfish, blackspotted</t>
-  </si>
-  <si>
-    <t>Crab, southern kelp</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>CDFW logbook data</t>
   </si>
@@ -77,6 +47,33 @@
   </si>
   <si>
     <t>BSPR</t>
+  </si>
+  <si>
+    <t>spp_code</t>
+  </si>
+  <si>
+    <t>comm_name</t>
+  </si>
+  <si>
+    <t>sci_name</t>
+  </si>
+  <si>
+    <t>pacfin_code</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Green sturgeon</t>
+  </si>
+  <si>
+    <t>White sturgeon</t>
+  </si>
+  <si>
+    <t>Blackspotted rockfish</t>
+  </si>
+  <si>
+    <t>Southern kelp crab</t>
   </si>
 </sst>
 </file>
@@ -118,10 +115,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,121 +456,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>471</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2">
-        <v>471</v>
-      </c>
       <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>472</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2">
-        <v>472</v>
-      </c>
       <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>656</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2">
-        <v>656</v>
-      </c>
       <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>829</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2">
-        <v>829</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="1"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -597,15 +577,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001327AC46A10B8248932D946D5EA7B0C3" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2062d8d78afee18bd0cccfaa92a92fe2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fe198930-0765-4478-a3c6-f3371b4f49a9" xmlns:ns3="2f44c234-6699-452d-a84c-c79cef948963" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b23eae7052a49920c3a71db0052f454c" ns2:_="" ns3:_="">
     <xsd:import namespace="fe198930-0765-4478-a3c6-f3371b4f49a9"/>
@@ -822,6 +793,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3B7B44D-74B5-4441-AF49-C534990E4AC2}">
   <ds:schemaRefs>
@@ -834,14 +814,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D2DF774-0F74-45FD-97F2-4EC1C3F89A1B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D180D91C-6144-4ACD-ACD8-4D5453358536}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -858,4 +830,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D2DF774-0F74-45FD-97F2-4EC1C3F89A1B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>